--- a/biology/Botanique/Polypore_aplani/Polypore_aplani.xlsx
+++ b/biology/Botanique/Polypore_aplani/Polypore_aplani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ganoderma applanatum
 Ganoderma applanatum, le Polypore aplani ou Ganoderme aplani, est une espèce de champignons (Fungi) basidiomycètes de la famille des Ganodermataceae.
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ganodermes sont des champignons pluriannuels très communs, parasites mais aussi saprophytes de faiblesse d’un grand nombre de feuillus, plus rarement des conifères.
 </t>
@@ -543,7 +557,9 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le polypore aplani est un champignon de grande taille pouvant atteindre 5 à 40 cm de large, 10 à 60 cm de long sur 3 à 30 cm d’épaisseur, ayant la forme d’une console semi-circulaire de couleur blanche, se recouvrant peu après d’une croûte lisse et bosselée de couleur beige à brun mat avec une bordure blanche.  Cette croûte peut elle-même être recouverte d’une couche de 1 mm d’épaisseur constituée de plusieurs milliards de spores rouges.
 Il a une chair brun cannelle à brun foncé, glabre et dure, d'odeur fongique et de saveur amère.
@@ -576,7 +592,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se développe principalement sur des feuillus, rarement sur des pins.
 </t>
@@ -607,10 +625,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un champignon non comestible. Il est utilisé pour ses grandes propriétés médicinales principalement en extraits par décoction et tincture. 
-Une étude polonaise de 2016 a trouvé que parmi les champignons lignivores (croissant sur les arbres) près de grandes routes, ce champignon bioaccumulait le plus des 5 éléments suivants : Au, B, Ba, Sb, et Sr)[1].
+Une étude polonaise de 2016 a trouvé que parmi les champignons lignivores (croissant sur les arbres) près de grandes routes, ce champignon bioaccumulait le plus des 5 éléments suivants : Au, B, Ba, Sb, et Sr).
 </t>
         </is>
       </c>
